--- a/公司管理/模版-新员工程序员.xlsx
+++ b/公司管理/模版-新员工程序员.xlsx
@@ -105,10 +105,10 @@
     <t>同事评价</t>
   </si>
   <si>
-    <t>申请人签字</t>
-  </si>
-  <si>
     <t>部门经理签字:</t>
+  </si>
+  <si>
+    <t>总经理签字:</t>
   </si>
   <si>
     <t>注：新员工考评表操作方法：
@@ -121,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -207,14 +207,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,39 +329,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,80 +344,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -377,181 +377,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,6 +958,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,62 +1010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1059,12 +1018,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,134 +1082,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,12 +1365,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1727,8 +1721,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -2006,18 +2000,18 @@
       <c r="D24" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" ht="94.5" customHeight="1" spans="1:6">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -2057,7 +2051,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.236111111111111" right="0.236111111111111" top="0" bottom="0" header="0.314583333333333" footer="0.314583333333333"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>